--- a/RUDN/Importance/Varible_f_reg_in_Northern Africa.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Northern Africa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>F-value</t>
   </si>
@@ -22,30 +22,42 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
@@ -55,93 +67,150 @@
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
+    <t>Status under enhanced HIPC initiative</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
   </si>
   <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
   </si>
   <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
-    <t>Status under enhanced HIPC initiative</t>
-  </si>
-  <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
@@ -151,226 +220,292 @@
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
   </si>
   <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 40-44, male (% of male population)</t>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 65-69, female (% of female population)</t>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
+    <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 25-29, female (% of female population)</t>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
   </si>
   <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
   </si>
   <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 05, female, interpolated</t>
+    <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
   </si>
   <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
     <t>Age population, age 12, female, interpolated</t>
@@ -379,6 +514,9 @@
     <t>Female population 10-14</t>
   </si>
   <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
     <t>Age population, age 12, male, interpolated</t>
   </si>
   <si>
@@ -388,184 +526,223 @@
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Age population, age 13, male, interpolated</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
     <t>Female population 15-19</t>
   </si>
   <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
   </si>
   <si>
     <t>Female population 80+</t>
   </si>
   <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
     <t>Male population 80+</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
     <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
   </si>
 </sst>
 </file>
@@ -923,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -942,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1038.967693238514</v>
+        <v>2559.245636124589</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -953,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>919.6232784032674</v>
+        <v>2325.434044035971</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -964,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>919.0658095735185</v>
+        <v>1096.297195795583</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -975,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>919.0658095735185</v>
+        <v>1055.567833192617</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -986,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>844.5146529512954</v>
+        <v>953.3783451866835</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -997,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>838.4511050557591</v>
+        <v>951.2270895065791</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1008,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>760.6580689047773</v>
+        <v>947.9647933640789</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1019,7 +1196,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>744.8534679609359</v>
+        <v>947.9647933640789</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1030,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>732.5212193483367</v>
+        <v>898.8259364876062</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1041,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>717.5504051993594</v>
+        <v>852.3887117366347</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1052,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>628.0108218422704</v>
+        <v>804.7582850600396</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1063,7 +1240,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>519.6298906345444</v>
+        <v>800.4954365495582</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1074,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>372.6623531357216</v>
+        <v>793.8517216180992</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1085,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>372.6623531357216</v>
+        <v>757.4439219409214</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1096,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>303.8942869121175</v>
+        <v>662.5442601152523</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1107,7 +1284,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>291.7794019414581</v>
+        <v>571.3794966148453</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1118,7 +1295,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>289.1883448860988</v>
+        <v>535.8410185302515</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1129,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>266.0132948374225</v>
+        <v>525.5496712028881</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1140,7 +1317,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>253.4156069657572</v>
+        <v>521.540480586182</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1151,7 +1328,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>253.4156069657572</v>
+        <v>520.1016660460614</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1162,7 +1339,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>226.8874252481501</v>
+        <v>518.2834284718699</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1173,7 +1350,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>221.0681598485862</v>
+        <v>517.224437800729</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1184,7 +1361,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>209.9284364636828</v>
+        <v>398.9699219185472</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1195,7 +1372,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>207.1074411354539</v>
+        <v>375.7546499776013</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1206,7 +1383,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>160.514268115844</v>
+        <v>370.0069766711801</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1217,7 +1394,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>151.1982727487126</v>
+        <v>370.0069766711801</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1228,7 +1405,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>136.0775096790823</v>
+        <v>335.3415133344122</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1239,7 +1416,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>135.1882004430074</v>
+        <v>330.9997083820327</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1250,7 +1427,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>134.5241768910134</v>
+        <v>330.9997083820327</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1261,7 +1438,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>131.8357694300151</v>
+        <v>312.192778735174</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1272,7 +1449,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>131.8357694299906</v>
+        <v>310.7512164961141</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1283,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>130.7632936958256</v>
+        <v>308.7745129814947</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1294,7 +1471,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>126.8320664631574</v>
+        <v>296.8218215254167</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1305,7 +1482,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>125.4959102412734</v>
+        <v>293.6882582241689</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1316,7 +1493,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>125.0737417079108</v>
+        <v>293.4114869499459</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1327,7 +1504,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>122.8228123958217</v>
+        <v>286.998744332691</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1338,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>121.7608757205087</v>
+        <v>259.1927808719153</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1349,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>121.3179178533855</v>
+        <v>252.4067760398555</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1360,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>119.3203210526281</v>
+        <v>243.0644565312478</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1371,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>119.2888174149412</v>
+        <v>243.0644565312478</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1382,7 +1559,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>112.8628584870643</v>
+        <v>241.5859058184959</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1393,7 +1570,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>110.5425846943837</v>
+        <v>216.344420999113</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1404,7 +1581,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>108.466261473664</v>
+        <v>213.462060955149</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1415,7 +1592,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>103.5511305501689</v>
+        <v>202.1339427003705</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1426,7 +1603,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>102.8245399634116</v>
+        <v>200.268562457486</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1437,7 +1614,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>102.4452376491941</v>
+        <v>185.6489994151633</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1448,7 +1625,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>100.6231020897058</v>
+        <v>171.5100566609329</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1459,7 +1636,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>98.42236181954692</v>
+        <v>146.9502035582726</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1470,7 +1647,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>94.72631255959725</v>
+        <v>146.43461778834</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1481,7 +1658,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>93.32805165536291</v>
+        <v>136.2134779752721</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1492,7 +1669,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>92.7317548055164</v>
+        <v>134.6664929064397</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1503,7 +1680,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>89.916515009764</v>
+        <v>125.0140784518755</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1514,7 +1691,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>83.72982398505511</v>
+        <v>125.0140784518638</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1525,7 +1702,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>82.64905191847146</v>
+        <v>124.519067900346</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1536,7 +1713,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>82.47149054985715</v>
+        <v>122.2860054286921</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1547,7 +1724,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>80.94687509333048</v>
+        <v>120.6429194609398</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1558,7 +1735,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>70.62019174596409</v>
+        <v>117.435837282641</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1569,7 +1746,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>69.338037474457</v>
+        <v>117.1924380765767</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1580,7 +1757,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>67.11132205721374</v>
+        <v>113.1395436864502</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1591,7 +1768,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>67.04028922278398</v>
+        <v>112.4294298881074</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1602,7 +1779,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>64.75830448296998</v>
+        <v>111.4071521927207</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1613,7 +1790,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>60.34991744189863</v>
+        <v>109.8294289232032</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1624,7 +1801,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>59.73984372840214</v>
+        <v>106.3218161670542</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1635,7 +1812,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>58.49748631112426</v>
+        <v>103.1981480437203</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1646,7 +1823,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>57.24855947071524</v>
+        <v>101.8016928541327</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1657,7 +1834,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>56.15631079913674</v>
+        <v>99.79416783909768</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1668,7 +1845,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>52.26259625124656</v>
+        <v>97.62891711360744</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1679,7 +1856,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>51.88306194603268</v>
+        <v>97.16931497730241</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1690,7 +1867,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>50.99744764041682</v>
+        <v>96.87967621423478</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1701,7 +1878,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>49.76956997089778</v>
+        <v>94.44247282853848</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1712,7 +1889,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>49.65860376513757</v>
+        <v>92.93977948154681</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1723,7 +1900,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>49.27527833879797</v>
+        <v>90.12787389934212</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1734,7 +1911,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>46.16164925620873</v>
+        <v>86.81578244616992</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1745,7 +1922,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>46.13634100952105</v>
+        <v>85.40295852156656</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1756,7 +1933,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>46.10373759206549</v>
+        <v>83.59768490803005</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1767,7 +1944,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>46.08934643485746</v>
+        <v>81.31488660714632</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1778,7 +1955,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>43.07947858974168</v>
+        <v>78.84606102008568</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1789,7 +1966,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>41.72256716799443</v>
+        <v>74.95430158521896</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1800,7 +1977,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>41.68099036029079</v>
+        <v>74.1850007782369</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1811,7 +1988,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>41.18290932193082</v>
+        <v>74.04901537768743</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1822,7 +1999,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>41.00568033351511</v>
+        <v>73.93548762340743</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1833,7 +2010,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>40.9915256341236</v>
+        <v>73.82585491858673</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1844,7 +2021,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>39.93536109386929</v>
+        <v>73.60010302993776</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1855,7 +2032,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>39.8868104609014</v>
+        <v>73.58959491806162</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1866,7 +2043,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>39.86757936769957</v>
+        <v>73.54254420768544</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1877,7 +2054,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>39.78565537653449</v>
+        <v>73.52253649596759</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1888,7 +2065,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>39.7652575705429</v>
+        <v>73.49783157597351</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1899,7 +2076,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>39.44235763446062</v>
+        <v>73.4360721716436</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1910,7 +2087,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>39.35699437179461</v>
+        <v>73.37576265930007</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1921,7 +2098,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>39.33737611854163</v>
+        <v>73.34526196360794</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1932,7 +2109,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>39.09364169169562</v>
+        <v>73.32959401392242</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1943,7 +2120,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>38.39023062702827</v>
+        <v>73.26832559434455</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1954,7 +2131,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>38.19559589320067</v>
+        <v>73.17921921592092</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1965,7 +2142,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>37.69704376467957</v>
+        <v>73.11890384652507</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1976,7 +2153,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>37.48456517384316</v>
+        <v>73.0199582977226</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1987,7 +2164,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>37.01318636568615</v>
+        <v>72.75408503402998</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1998,7 +2175,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>36.97732318518214</v>
+        <v>72.66050419913077</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2009,7 +2186,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>36.89050880842554</v>
+        <v>72.49300914909932</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2020,7 +2197,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>36.85951514574674</v>
+        <v>72.49300914909932</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2031,7 +2208,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>36.79168596141151</v>
+        <v>72.40750905302077</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2042,7 +2219,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>36.76530540368461</v>
+        <v>68.21494172785735</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2053,7 +2230,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>35.88219407430306</v>
+        <v>65.8577355413059</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2064,7 +2241,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>35.52228693166565</v>
+        <v>65.36313631232684</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2075,7 +2252,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>35.38582971229038</v>
+        <v>64.88678698450775</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2086,7 +2263,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>35.38455884596566</v>
+        <v>64.18748319303681</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2097,7 +2274,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>35.05609766093831</v>
+        <v>64.16223103092511</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2108,7 +2285,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>35.04212781718051</v>
+        <v>63.59296743634179</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2119,7 +2296,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>34.49276676407735</v>
+        <v>61.5320348660172</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2130,7 +2307,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>33.99765400847618</v>
+        <v>61.05562822430248</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2141,7 +2318,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>33.95988319680411</v>
+        <v>59.30641565402263</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2152,7 +2329,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>33.84771035612083</v>
+        <v>56.96255536443606</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2163,7 +2340,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>33.81749776855028</v>
+        <v>54.84299142301187</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2174,7 +2351,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>32.4444468377317</v>
+        <v>53.61018550427689</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2185,7 +2362,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>31.91649591340584</v>
+        <v>51.61865834814591</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2196,7 +2373,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>30.80732580511543</v>
+        <v>48.03137273515945</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2207,7 +2384,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>30.77297152400593</v>
+        <v>47.9677006500591</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2218,7 +2395,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>30.73988335166848</v>
+        <v>47.32119267761447</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2229,7 +2406,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>30.01719227945684</v>
+        <v>45.4940667476702</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2240,7 +2417,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>29.48408362357103</v>
+        <v>43.97872110476907</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2251,7 +2428,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>28.22667527064892</v>
+        <v>42.74905228264929</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2262,7 +2439,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>27.7336482666142</v>
+        <v>42.3783524826396</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2273,7 +2450,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>27.00755184977726</v>
+        <v>42.27425850786248</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2284,7 +2461,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>26.13870727482217</v>
+        <v>41.72532402075131</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2295,7 +2472,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>25.83662939168016</v>
+        <v>41.21965027843488</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2306,7 +2483,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>24.9168678455298</v>
+        <v>41.11095423102906</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2317,7 +2494,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>24.78145913731834</v>
+        <v>41.0448290046264</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2328,10 +2505,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>24.20099418285333</v>
+        <v>40.96728431520273</v>
       </c>
       <c r="C128">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2339,10 +2516,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>23.59388399838544</v>
+        <v>40.58948681187805</v>
       </c>
       <c r="C129">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2350,10 +2527,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>23.5662138421951</v>
+        <v>40.50816306354442</v>
       </c>
       <c r="C130">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2361,10 +2538,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>22.29751498707935</v>
+        <v>39.87136605384246</v>
       </c>
       <c r="C131">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2372,10 +2549,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>22.29447469059672</v>
+        <v>39.50586542092501</v>
       </c>
       <c r="C132">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2383,10 +2560,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>21.61216670929396</v>
+        <v>39.45521024180973</v>
       </c>
       <c r="C133">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2394,10 +2571,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>20.96430088428757</v>
+        <v>39.17571675708849</v>
       </c>
       <c r="C134">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2405,10 +2582,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>20.94141648828654</v>
+        <v>38.93384935919213</v>
       </c>
       <c r="C135">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2416,10 +2593,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>20.54259995013354</v>
+        <v>38.0011273043204</v>
       </c>
       <c r="C136">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2427,10 +2604,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>20.33304274480354</v>
+        <v>37.78188475598256</v>
       </c>
       <c r="C137">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2438,10 +2615,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>20.15968001076511</v>
+        <v>37.39604617489364</v>
       </c>
       <c r="C138">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2449,10 +2626,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>19.19196502653008</v>
+        <v>36.97401259758752</v>
       </c>
       <c r="C139">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2460,10 +2637,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>19.18131218722997</v>
+        <v>36.42354170595492</v>
       </c>
       <c r="C140">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2471,10 +2648,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>19.17133049762223</v>
+        <v>36.33884018218248</v>
       </c>
       <c r="C141">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2482,10 +2659,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>18.46248092852795</v>
+        <v>35.93694762667388</v>
       </c>
       <c r="C142">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2493,10 +2670,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>18.1390221544319</v>
+        <v>35.90891752910095</v>
       </c>
       <c r="C143">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2504,10 +2681,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>18.07997102127425</v>
+        <v>35.7480208127583</v>
       </c>
       <c r="C144">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2515,10 +2692,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>17.66450348204945</v>
+        <v>35.55018732682897</v>
       </c>
       <c r="C145">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2526,10 +2703,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>16.40881319921671</v>
+        <v>35.45474288661146</v>
       </c>
       <c r="C146">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2537,10 +2714,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>16.34668423949448</v>
+        <v>34.71956672396838</v>
       </c>
       <c r="C147">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2548,10 +2725,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>16.34102919528874</v>
+        <v>34.35375256776938</v>
       </c>
       <c r="C148">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2559,10 +2736,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>16.11485580913458</v>
+        <v>34.26014438970144</v>
       </c>
       <c r="C149">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2570,10 +2747,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>15.78519320923118</v>
+        <v>33.97830888000399</v>
       </c>
       <c r="C150">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2581,10 +2758,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>15.77852266729002</v>
+        <v>33.71278983938556</v>
       </c>
       <c r="C151">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2592,10 +2769,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>14.17144382129377</v>
+        <v>33.30520697063698</v>
       </c>
       <c r="C152">
-        <v>0.00035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2603,10 +2780,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>13.11477424449176</v>
+        <v>32.97488998088652</v>
       </c>
       <c r="C153">
-        <v>0.00056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2614,10 +2791,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>12.45329586835114</v>
+        <v>32.97488998088652</v>
       </c>
       <c r="C154">
-        <v>0.00075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2625,10 +2802,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>12.07149882067663</v>
+        <v>32.18492936680446</v>
       </c>
       <c r="C155">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2636,10 +2813,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>11.8255654728612</v>
+        <v>32.15157351394664</v>
       </c>
       <c r="C156">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2647,10 +2824,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>11.7235012888425</v>
+        <v>31.94947119590777</v>
       </c>
       <c r="C157">
-        <v>0.00105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2658,10 +2835,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>11.70712831159367</v>
+        <v>31.24574881340166</v>
       </c>
       <c r="C158">
-        <v>0.00106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2669,10 +2846,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>11.29316717243052</v>
+        <v>31.24574881340025</v>
       </c>
       <c r="C159">
-        <v>0.00128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2680,10 +2857,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>11.26086218763445</v>
+        <v>30.34090410101332</v>
       </c>
       <c r="C160">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2691,10 +2868,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>11.15377359050165</v>
+        <v>29.8495451894693</v>
       </c>
       <c r="C161">
-        <v>0.00136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2702,10 +2879,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>10.81522201024538</v>
+        <v>29.44761952306227</v>
       </c>
       <c r="C162">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2713,10 +2890,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>10.79349747026155</v>
+        <v>29.01887796184769</v>
       </c>
       <c r="C163">
-        <v>0.00161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2724,10 +2901,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>10.41792070892084</v>
+        <v>27.97385325250431</v>
       </c>
       <c r="C164">
-        <v>0.00192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2735,10 +2912,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>10.29070132362491</v>
+        <v>27.54320313009634</v>
       </c>
       <c r="C165">
-        <v>0.00204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2746,10 +2923,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>10.08110361389172</v>
+        <v>26.76722021299617</v>
       </c>
       <c r="C166">
-        <v>0.00225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2757,10 +2934,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>10.03656484659401</v>
+        <v>26.26754308100818</v>
       </c>
       <c r="C167">
-        <v>0.0023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2768,10 +2945,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>10.02975170177905</v>
+        <v>25.87738621257642</v>
       </c>
       <c r="C168">
-        <v>0.00231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2779,10 +2956,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>9.801259986162979</v>
+        <v>24.41970133621481</v>
       </c>
       <c r="C169">
-        <v>0.00257</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2790,10 +2967,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>9.800101440289705</v>
+        <v>23.87805773925765</v>
       </c>
       <c r="C170">
-        <v>0.00257</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2801,10 +2978,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>9.797895672373935</v>
+        <v>23.84580235273513</v>
       </c>
       <c r="C171">
-        <v>0.00257</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2812,10 +2989,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>9.630470110637841</v>
+        <v>23.62682839267645</v>
       </c>
       <c r="C172">
-        <v>0.00279</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2823,10 +3000,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>9.009581265925741</v>
+        <v>22.84554753357633</v>
       </c>
       <c r="C173">
-        <v>0.00375</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2834,10 +3011,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>8.930331560706623</v>
+        <v>22.62244770896155</v>
       </c>
       <c r="C174">
-        <v>0.0039</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2845,10 +3022,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>8.798208312183329</v>
+        <v>22.09665235369198</v>
       </c>
       <c r="C175">
-        <v>0.00416</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2856,10 +3033,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>8.586919142704645</v>
+        <v>20.50156782655876</v>
       </c>
       <c r="C176">
-        <v>0.00461</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2867,10 +3044,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>8.386362789492875</v>
+        <v>19.46816374533522</v>
       </c>
       <c r="C177">
-        <v>0.00508</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2878,10 +3055,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>8.149179817585198</v>
+        <v>18.97432063526526</v>
       </c>
       <c r="C178">
-        <v>0.00571</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2889,10 +3066,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>8.147149099931029</v>
+        <v>18.78610623173168</v>
       </c>
       <c r="C179">
-        <v>0.00571</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2900,10 +3077,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>8.14679638317839</v>
+        <v>18.78580826787767</v>
       </c>
       <c r="C180">
-        <v>0.00571</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2911,10 +3088,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>7.906292915952828</v>
+        <v>18.78392271854763</v>
       </c>
       <c r="C181">
-        <v>0.00643</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2922,10 +3099,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>7.739400203229723</v>
+        <v>18.60896348230012</v>
       </c>
       <c r="C182">
-        <v>0.00699</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2933,10 +3110,659 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>7.586249939530314</v>
+        <v>18.29303410435696</v>
       </c>
       <c r="C183">
-        <v>0.00754</v>
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>18.13507176916712</v>
+      </c>
+      <c r="C184">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>16.22444136317492</v>
+      </c>
+      <c r="C185">
+        <v>0.00015</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>15.85328589982402</v>
+      </c>
+      <c r="C186">
+        <v>0.00018</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>15.71895162299427</v>
+      </c>
+      <c r="C187">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>15.34950059822902</v>
+      </c>
+      <c r="C188">
+        <v>0.00022</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>14.9654326862802</v>
+      </c>
+      <c r="C189">
+        <v>0.00026</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>14.58889342262679</v>
+      </c>
+      <c r="C190">
+        <v>0.00031</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>14.43233727884755</v>
+      </c>
+      <c r="C191">
+        <v>0.00033</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>14.42982983298954</v>
+      </c>
+      <c r="C192">
+        <v>0.00033</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>14.37136653105805</v>
+      </c>
+      <c r="C193">
+        <v>0.00034</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>14.37122852346131</v>
+      </c>
+      <c r="C194">
+        <v>0.00034</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>14.35241818310907</v>
+      </c>
+      <c r="C195">
+        <v>0.00034</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>14.3521787449529</v>
+      </c>
+      <c r="C196">
+        <v>0.00034</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>14.28819964987434</v>
+      </c>
+      <c r="C197">
+        <v>0.00035</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>14.27167812171248</v>
+      </c>
+      <c r="C198">
+        <v>0.00035</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>14.27167812171248</v>
+      </c>
+      <c r="C199">
+        <v>0.00035</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>13.70178677668865</v>
+      </c>
+      <c r="C200">
+        <v>0.00045</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>13.68138482247891</v>
+      </c>
+      <c r="C201">
+        <v>0.00046</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>13.35987983940012</v>
+      </c>
+      <c r="C202">
+        <v>0.00053</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>13.28454241856385</v>
+      </c>
+      <c r="C203">
+        <v>0.00054</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>13.20809163097778</v>
+      </c>
+      <c r="C204">
+        <v>0.00056</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>12.65587027767126</v>
+      </c>
+      <c r="C205">
+        <v>0.00072</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>12.44455166363904</v>
+      </c>
+      <c r="C206">
+        <v>0.00079</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>12.11908237598246</v>
+      </c>
+      <c r="C207">
+        <v>0.00091</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>11.72268318401073</v>
+      </c>
+      <c r="C208">
+        <v>0.00109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>11.51355323363743</v>
+      </c>
+      <c r="C209">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>10.83748400317134</v>
+      </c>
+      <c r="C210">
+        <v>0.00163</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>10.45870499037125</v>
+      </c>
+      <c r="C211">
+        <v>0.00195</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>10.2895994989164</v>
+      </c>
+      <c r="C212">
+        <v>0.0021</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>10.00485989644458</v>
+      </c>
+      <c r="C213">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>10.00485989644458</v>
+      </c>
+      <c r="C214">
+        <v>0.0024</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>9.798189185238966</v>
+      </c>
+      <c r="C215">
+        <v>0.00265</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>9.780346451392603</v>
+      </c>
+      <c r="C216">
+        <v>0.00267</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>9.675210419227531</v>
+      </c>
+      <c r="C217">
+        <v>0.0028</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>9.671683172360494</v>
+      </c>
+      <c r="C218">
+        <v>0.00281</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>9.653883014244791</v>
+      </c>
+      <c r="C219">
+        <v>0.00283</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>9.317078503634818</v>
+      </c>
+      <c r="C220">
+        <v>0.00332</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>9.315791115976118</v>
+      </c>
+      <c r="C221">
+        <v>0.00332</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>9.314370239650096</v>
+      </c>
+      <c r="C222">
+        <v>0.00333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>9.314364206742709</v>
+      </c>
+      <c r="C223">
+        <v>0.00333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>9.313254490013584</v>
+      </c>
+      <c r="C224">
+        <v>0.00333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>9.312124778028938</v>
+      </c>
+      <c r="C225">
+        <v>0.00333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>9.311801083575318</v>
+      </c>
+      <c r="C226">
+        <v>0.00333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>9.311801083575318</v>
+      </c>
+      <c r="C227">
+        <v>0.00333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>9.244044552913564</v>
+      </c>
+      <c r="C228">
+        <v>0.00344</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>9.179157327537167</v>
+      </c>
+      <c r="C229">
+        <v>0.00355</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>9.071196370939653</v>
+      </c>
+      <c r="C230">
+        <v>0.00373</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>9.018517087072732</v>
+      </c>
+      <c r="C231">
+        <v>0.00383</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>8.912694617861169</v>
+      </c>
+      <c r="C232">
+        <v>0.00403</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>8.446745609130867</v>
+      </c>
+      <c r="C233">
+        <v>0.00504</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>8.18154146908625</v>
+      </c>
+      <c r="C234">
+        <v>0.00573</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>8.171523271404336</v>
+      </c>
+      <c r="C235">
+        <v>0.00576</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>7.840077644310137</v>
+      </c>
+      <c r="C236">
+        <v>0.00678</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>7.777241984031405</v>
+      </c>
+      <c r="C237">
+        <v>0.00699</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>7.744427597813421</v>
+      </c>
+      <c r="C238">
+        <v>0.0071</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>7.71551471776453</v>
+      </c>
+      <c r="C239">
+        <v>0.0072</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>7.613483046844582</v>
+      </c>
+      <c r="C240">
+        <v>0.00758</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>7.475480334673442</v>
+      </c>
+      <c r="C241">
+        <v>0.008109999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>7.347231107890813</v>
+      </c>
+      <c r="C242">
+        <v>0.00864</v>
       </c>
     </row>
   </sheetData>
